--- a/画面テスト仕様書/発注リスト画面テスト仕様書.xlsx
+++ b/画面テスト仕様書/発注リスト画面テスト仕様書.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b8252\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamac/Desktop/system-devel/画面テスト仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C82291-2FE4-644B-885E-86D046A2E41B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5676"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="原本" sheetId="1" r:id="rId1"/>
+    <sheet name="発注リスト画面" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -174,14 +175,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>テキストボックスに文字を入力した場合、その文字が含まれている商品データが商品一覧に表示されているかを確認</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>検索テキストボックスが空の場合、すべての商品データが表示されているかを確認</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>発注済み一覧を表示ボタン押下</t>
     <rPh sb="0" eb="2">
       <t>ハッチュウ</t>
@@ -250,15 +243,29 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>検索テキストボックスが空の場合、すべての発注データが表示されているかを確認</t>
+    <rPh sb="0" eb="2">
+      <t>ハッチュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テキストボックスに文字を入力した場合、その文字が含まれている発注データが発注一覧に表示されているかを確認</t>
+    <rPh sb="0" eb="2">
+      <t>ハッチュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,17 +617,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1002,6 +998,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1009,10 +1016,91 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1020,6 +1108,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1028,39 +1125,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1070,6 +1149,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1077,23 +1165,98 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1103,176 +1266,74 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1280,8 +1341,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1289,28 +1350,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1322,25 +1371,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1348,38 +1385,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 4" xfId="1"/>
+    <cellStyle name="標準 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1656,533 +1666,533 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="113" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="14.296875" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" customWidth="1"/>
-    <col min="4" max="4" width="14.8984375" customWidth="1"/>
-    <col min="8" max="8" width="16.19921875" customWidth="1"/>
-    <col min="9" max="9" width="13.796875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20">
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="46"/>
+    </row>
+    <row r="2" spans="1:13" ht="19" thickBot="1">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="47">
         <v>43805</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="23" t="s">
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" ht="19" thickBot="1">
+      <c r="A4" s="76"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
+    </row>
+    <row r="5" spans="1:13" ht="19" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="55"/>
+      <c r="M5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.25" customHeight="1">
+      <c r="A6" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="58">
+        <v>1</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="4" t="s">
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="69">
+        <v>43805</v>
+      </c>
+      <c r="L6" s="70"/>
+      <c r="M6" s="73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="27" customHeight="1" thickBot="1">
+      <c r="A7" s="57"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="71"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="74"/>
+    </row>
+    <row r="8" spans="1:13" ht="25.25" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="91"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="96">
+        <v>43805</v>
+      </c>
+      <c r="L8" s="97"/>
+      <c r="M8" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="23">
+        <v>3</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="84"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="86">
+        <v>43805</v>
+      </c>
+      <c r="L9" s="87"/>
+      <c r="M9" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="19.25" customHeight="1">
+      <c r="A10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="23">
         <v>4</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="27"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31" t="s">
+      <c r="C10" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="86">
+        <v>43805</v>
+      </c>
+      <c r="L10" s="87"/>
+      <c r="M10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="33"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="42">
-        <v>1</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="117">
-        <v>43805</v>
-      </c>
-      <c r="L6" s="118"/>
-      <c r="M6" s="50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="119"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="59"/>
-    </row>
-    <row r="8" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="61">
-        <v>2</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="66">
-        <v>43805</v>
-      </c>
-      <c r="L8" s="67"/>
-      <c r="M8" s="68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="115">
-        <v>3</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="76">
-        <v>43805</v>
-      </c>
-      <c r="L9" s="77"/>
-      <c r="M9" s="116" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="115">
-        <v>4</v>
-      </c>
-      <c r="C10" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="76">
-        <v>43805</v>
-      </c>
-      <c r="L10" s="77"/>
-      <c r="M10" s="121" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="78"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="83"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="84"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="83"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="84"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="83"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="84"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="83"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="84"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="83"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="94"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="83"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="94"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="83"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="84"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="99"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="84"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="99"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" s="84"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="99"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="84"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="99"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="84"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="99"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A23" s="84"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="99"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="84"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="99"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="84"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="99"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A26" s="84"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="99"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" s="84"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="99"/>
-    </row>
-    <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="100"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="108"/>
+    </row>
+    <row r="11" spans="1:13" ht="27.5" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="15"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="17"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="13"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="17"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="13"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="17"/>
+    </row>
+    <row r="28" spans="1:13" ht="19" thickBot="1">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="84">
@@ -2260,16 +2270,16 @@
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="K6:L7"/>
     <mergeCell ref="M6:M7"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="J3:M3"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:F2"/>
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="J2:M2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
